--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/18.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/18.xlsx
@@ -479,13 +479,13 @@
         <v>0.05404649910641258</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.626815543536756</v>
+        <v>-1.627452234271322</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02414320643223082</v>
+        <v>0.01978474748534922</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2270907075759359</v>
+        <v>-0.2281169680430239</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.07044665046304642</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.650872851786716</v>
+        <v>-1.652291830024568</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02594231028787751</v>
+        <v>0.02102192651469156</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2019284379028231</v>
+        <v>-0.2034457923357569</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.08878841678360415</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.705379559938237</v>
+        <v>-1.705341783479326</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01457608993264479</v>
+        <v>-0.0187110381643017</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2119801240114493</v>
+        <v>-0.2133636868190726</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1088697567758009</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.817057003604082</v>
+        <v>-1.8174426382888</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02188111267460129</v>
+        <v>-0.02405483308111753</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2320457197697904</v>
+        <v>-0.2323983000529618</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1322143490423658</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.78377673031286</v>
+        <v>-1.782035078155141</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.002338091264531946</v>
+        <v>-0.001858015432535236</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2263336043785902</v>
+        <v>-0.2272843119278558</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1604909875535086</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.603232015042308</v>
+        <v>-1.602270289359193</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06088710879987408</v>
+        <v>0.06193697955378164</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2086589436655048</v>
+        <v>-0.2109869179459085</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1947496601115613</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.342620095109432</v>
+        <v>-1.342005440642564</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09444047440864084</v>
+        <v>0.09868875201703139</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1982074567000682</v>
+        <v>-0.2003182163417325</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2352608763745193</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9349562257785993</v>
+        <v>-0.9359305436146843</v>
       </c>
       <c r="F9" t="n">
-        <v>0.192131971172168</v>
+        <v>0.1944111508598114</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1730656492755323</v>
+        <v>-0.1758422190055068</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.280623127673149</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4947951576693929</v>
+        <v>-0.4955349466564042</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2034775009985034</v>
+        <v>0.207433011050332</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1251477851657755</v>
+        <v>-0.1294086549271365</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3293282648889959</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01832697749870433</v>
+        <v>-0.0216938043991665</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1779657990804618</v>
+        <v>0.1816852062640954</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05949859565456642</v>
+        <v>-0.0647038768887078</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3787393287156573</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5350792573211619</v>
+        <v>0.5294962114979084</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1415193863267444</v>
+        <v>0.1437718076893257</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03356056283497284</v>
+        <v>0.0284324085377752</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4263009361366422</v>
       </c>
       <c r="E13" t="n">
-        <v>1.105363699178735</v>
+        <v>1.096538173965602</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02073073297725093</v>
+        <v>0.02507502575204083</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1352500681666038</v>
+        <v>0.1314472379695413</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.470100730801327</v>
       </c>
       <c r="E14" t="n">
-        <v>1.712336952734707</v>
+        <v>1.700453108368887</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1848644966088023</v>
+        <v>-0.1787761906476112</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2544552582800688</v>
+        <v>0.2509058451615357</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5080280539716024</v>
       </c>
       <c r="E15" t="n">
-        <v>2.356283915450031</v>
+        <v>2.341571558723234</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.459131032418962</v>
+        <v>-0.4523092335472448</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3788358232643704</v>
+        <v>0.3742381134110511</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.540145038049794</v>
       </c>
       <c r="E16" t="n">
-        <v>2.978616447591654</v>
+        <v>2.963054120539355</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6939337608198708</v>
+        <v>-0.6886781109738478</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5282637545259299</v>
+        <v>0.5221612823926471</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5681012019413755</v>
       </c>
       <c r="E17" t="n">
-        <v>3.576680752921064</v>
+        <v>3.561201848882193</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9385363322699977</v>
+        <v>-0.9319915607636293</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6907198420544952</v>
+        <v>0.6837107349073432</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.595619533487085</v>
       </c>
       <c r="E18" t="n">
-        <v>4.147983585150119</v>
+        <v>4.128215479005704</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.160075588545266</v>
+        <v>-1.155290570416512</v>
       </c>
       <c r="G18" t="n">
-        <v>0.82568096357218</v>
+        <v>0.8183003879124011</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.626018946863422</v>
       </c>
       <c r="E19" t="n">
-        <v>4.624072426712574</v>
+        <v>4.601571823373581</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.371139747568279</v>
+        <v>-1.369933261911802</v>
       </c>
       <c r="G19" t="n">
-        <v>1.00066781732542</v>
+        <v>0.9936917645798155</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6617921157790823</v>
       </c>
       <c r="E20" t="n">
-        <v>4.993551379170212</v>
+        <v>4.966238999377403</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.543003747384858</v>
+        <v>-1.544469159186789</v>
       </c>
       <c r="G20" t="n">
-        <v>1.1361310509428</v>
+        <v>1.128989726189459</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.702447859049004</v>
       </c>
       <c r="E21" t="n">
-        <v>5.331741979534636</v>
+        <v>5.303820454341882</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.756674482072745</v>
+        <v>-1.759022131592165</v>
       </c>
       <c r="G21" t="n">
-        <v>1.268354953208543</v>
+        <v>1.26172046261226</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7461637509016513</v>
       </c>
       <c r="E22" t="n">
-        <v>5.63015711670379</v>
+        <v>5.597817319837546</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.906875256722863</v>
+        <v>-1.912303261662668</v>
       </c>
       <c r="G22" t="n">
-        <v>1.376305906604708</v>
+        <v>1.369310965629648</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7909593920635275</v>
       </c>
       <c r="E23" t="n">
-        <v>5.794794794734478</v>
+        <v>5.760300165691174</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.035647335055593</v>
+        <v>-2.04154911975091</v>
       </c>
       <c r="G23" t="n">
-        <v>1.48661316662546</v>
+        <v>1.47766958997823</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8333517629509207</v>
       </c>
       <c r="E24" t="n">
-        <v>5.954346816984244</v>
+        <v>5.918188449729724</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.12877575038647</v>
+        <v>-2.134697997330364</v>
       </c>
       <c r="G24" t="n">
-        <v>1.525810964803211</v>
+        <v>1.518998610046222</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8706240867457108</v>
       </c>
       <c r="E25" t="n">
-        <v>6.050917612133405</v>
+        <v>6.012291182896686</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.162123706499907</v>
+        <v>-2.168400107746093</v>
       </c>
       <c r="G25" t="n">
-        <v>1.598226862516892</v>
+        <v>1.591269698000743</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9005878551564941</v>
       </c>
       <c r="E26" t="n">
-        <v>6.106974729119408</v>
+        <v>6.069565016663454</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.185654505353791</v>
+        <v>-2.19152166162844</v>
       </c>
       <c r="G26" t="n">
-        <v>1.668634311831793</v>
+        <v>1.659426299972184</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9213880958501248</v>
       </c>
       <c r="E27" t="n">
-        <v>6.095512721878096</v>
+        <v>6.058249393200423</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.182311288740149</v>
+        <v>-2.188150899680174</v>
       </c>
       <c r="G27" t="n">
-        <v>1.64192320734332</v>
+        <v>1.63271362146459</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9329012876133975</v>
       </c>
       <c r="E28" t="n">
-        <v>6.036236735789033</v>
+        <v>5.997659101145075</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.19788778196454</v>
+        <v>-2.202978946812387</v>
       </c>
       <c r="G28" t="n">
-        <v>1.635197423638002</v>
+        <v>1.626859844352473</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9351039942202573</v>
       </c>
       <c r="E29" t="n">
-        <v>5.934712502465139</v>
+        <v>5.897523152686167</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.150975716073295</v>
+        <v>-2.155415237004923</v>
       </c>
       <c r="G29" t="n">
-        <v>1.609265458614574</v>
+        <v>1.600602057370935</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.929705542777491</v>
       </c>
       <c r="E30" t="n">
-        <v>5.805254151795521</v>
+        <v>5.767216405710169</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.152848798827642</v>
+        <v>-2.154729751677597</v>
       </c>
       <c r="G30" t="n">
-        <v>1.544574846748237</v>
+        <v>1.535070919293823</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9184095577964441</v>
       </c>
       <c r="E31" t="n">
-        <v>5.606625530840345</v>
+        <v>5.570939369322216</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.098120153980017</v>
+        <v>-2.101009266077165</v>
       </c>
       <c r="G31" t="n">
-        <v>1.481993420504443</v>
+        <v>1.472192003436103</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9037070090939689</v>
       </c>
       <c r="E32" t="n">
-        <v>5.426658480587309</v>
+        <v>5.391450820882056</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.023213371006879</v>
+        <v>-2.025301307371284</v>
       </c>
       <c r="G32" t="n">
-        <v>1.438356888404624</v>
+        <v>1.429561269554795</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8878298997096277</v>
       </c>
       <c r="E33" t="n">
-        <v>5.160595732437369</v>
+        <v>5.128943781927133</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.990260493692888</v>
+        <v>-1.989553759107424</v>
       </c>
       <c r="G33" t="n">
-        <v>1.378297040793153</v>
+        <v>1.370469443702925</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8721225889651494</v>
       </c>
       <c r="E34" t="n">
-        <v>4.935315819720329</v>
+        <v>4.907320315628875</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.922907428482871</v>
+        <v>-1.921423128451484</v>
       </c>
       <c r="G34" t="n">
-        <v>1.283016941323459</v>
+        <v>1.274888706581062</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8571511195430526</v>
       </c>
       <c r="E35" t="n">
-        <v>4.645180023129216</v>
+        <v>4.61965100700084</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.885902238941092</v>
+        <v>-1.884517889123908</v>
       </c>
       <c r="G35" t="n">
-        <v>1.197714549063689</v>
+        <v>1.190049075942955</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8423052803788299</v>
       </c>
       <c r="E36" t="n">
-        <v>4.271926572818699</v>
+        <v>4.250154740332867</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.847489089295309</v>
+        <v>-1.846598194472653</v>
       </c>
       <c r="G36" t="n">
-        <v>1.148435158414007</v>
+        <v>1.140856256344945</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8267923852688035</v>
       </c>
       <c r="E37" t="n">
-        <v>3.959576644368669</v>
+        <v>3.940208339081064</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.804996869096676</v>
+        <v>-1.806311175062962</v>
       </c>
       <c r="G37" t="n">
-        <v>1.06565277076744</v>
+        <v>1.058265899031176</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8089947479008872</v>
       </c>
       <c r="E38" t="n">
-        <v>3.674088926242757</v>
+        <v>3.657597927908889</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.728298065353936</v>
+        <v>-1.729214931492093</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9868872799184326</v>
+        <v>0.9821605004971666</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7872349910719576</v>
       </c>
       <c r="E39" t="n">
-        <v>3.32939605288824</v>
+        <v>3.316548908820184</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.690002967142251</v>
+        <v>-1.69101820947549</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9033367709406708</v>
+        <v>0.8988397983111147</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7608083021889708</v>
       </c>
       <c r="E40" t="n">
-        <v>3.000692065767896</v>
+        <v>2.989258390870768</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.651259273480995</v>
+        <v>-1.651752728475523</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8420177080321599</v>
+        <v>0.838332929269195</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7290907929622736</v>
       </c>
       <c r="E41" t="n">
-        <v>2.677509737725075</v>
+        <v>2.669198916764608</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.631446307791623</v>
+        <v>-1.630931603538957</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7870387941442482</v>
+        <v>0.7843613876189157</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6919633196239999</v>
       </c>
       <c r="E42" t="n">
-        <v>2.340860102080406</v>
+        <v>2.335075581809626</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.579698855159741</v>
+        <v>-1.579184937916636</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7251231779887644</v>
+        <v>0.7236955426457446</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6505020810289425</v>
       </c>
       <c r="E43" t="n">
-        <v>2.083026325896625</v>
+        <v>2.079470616701607</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.526167251853865</v>
+        <v>-1.526960557491001</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6489548186899028</v>
+        <v>0.6480969782687939</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6055316420404505</v>
       </c>
       <c r="E44" t="n">
-        <v>1.829352682250442</v>
+        <v>1.826152701376838</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.507321520914532</v>
+        <v>-1.507627667633625</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5630306888772195</v>
+        <v>0.5620815553470752</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5581433898360543</v>
       </c>
       <c r="E45" t="n">
-        <v>1.603496678535007</v>
+        <v>1.600743719091852</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.427344822351684</v>
+        <v>-1.428305761025238</v>
       </c>
       <c r="G45" t="n">
-        <v>0.507974648052364</v>
+        <v>0.5073717987289059</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5094751541476795</v>
       </c>
       <c r="E46" t="n">
-        <v>1.390701885488124</v>
+        <v>1.389352951101169</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.364557199602999</v>
+        <v>-1.367221226965801</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4445936200949492</v>
+        <v>0.4449713846840614</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4605143258650248</v>
       </c>
       <c r="E47" t="n">
-        <v>1.238154248328147</v>
+        <v>1.237337332404192</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.315809040406756</v>
+        <v>-1.320512996550763</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3805200237241622</v>
+        <v>0.381330643571632</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.412501816712772</v>
       </c>
       <c r="E48" t="n">
-        <v>1.027660671236606</v>
+        <v>1.028291852904247</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.237943101485572</v>
+        <v>-1.241940323044115</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2950177310359875</v>
+        <v>0.2960392694457116</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3663762880944296</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8699250670528211</v>
+        <v>0.8713149259369296</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.167286957149505</v>
+        <v>-1.171070899117112</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2498024577575039</v>
+        <v>0.251294627884497</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3227183359270738</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7707146418372387</v>
+        <v>0.7721627394288354</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.094231220663016</v>
+        <v>-1.098573939418684</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2129027274968519</v>
+        <v>0.2136141841396798</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2820006005302799</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6346737432023416</v>
+        <v>0.6372787448480942</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.06256667799981</v>
+        <v>-1.065851655905964</v>
       </c>
       <c r="G51" t="n">
-        <v>0.17092048949352</v>
+        <v>0.172077393547676</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.244623115102761</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4621880058328484</v>
+        <v>0.4642153424610836</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.02525770276762</v>
+        <v>-1.029540608796679</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1280316164763188</v>
+        <v>0.1294702699531876</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2104726986423337</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4014828103816447</v>
+        <v>0.4033700593080842</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.024226720243168</v>
+        <v>-1.027333833988615</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1013409742364231</v>
+        <v>0.1021138176249817</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1799540203483739</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2461948059314827</v>
+        <v>0.2464167426275861</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9632421363979332</v>
+        <v>-0.9668678894438494</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05466815925161506</v>
+        <v>0.05530248895749924</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1527750582159606</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1276695920784197</v>
+        <v>0.1277042204990883</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9384796675816308</v>
+        <v>-0.9416883055604023</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02748484902675219</v>
+        <v>0.02822306399464221</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.128593399187432</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03933249095278246</v>
+        <v>0.0391908292318654</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9220539910412975</v>
+        <v>-0.9257324737277772</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008489357990575035</v>
+        <v>-0.007648831779800466</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1068337382138788</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07287461014737967</v>
+        <v>-0.0736222692299975</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.923007059619245</v>
+        <v>-0.9262581961142916</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05085723067862565</v>
+        <v>-0.05037243278926504</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.08754334640530524</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1288325639287404</v>
+        <v>-0.1279542612590546</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9026392521896142</v>
+        <v>-0.907019747404194</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.08128144627424665</v>
+        <v>-0.08020639121439826</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.07019884621253082</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2079380429079491</v>
+        <v>-0.2076641635808428</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9104762933945703</v>
+        <v>-0.9150063204256736</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1055071745701855</v>
+        <v>-0.1059636401153627</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.05455955647856316</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.302042350094032</v>
+        <v>-0.2996199346663502</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9067269798476321</v>
+        <v>-0.9112814041751156</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1244095701978855</v>
+        <v>-0.1247731686149059</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.0404341462558498</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3941445049578204</v>
+        <v>-0.3926491867925848</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8885824744268384</v>
+        <v>-0.8928960738287629</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1464537079917016</v>
+        <v>-0.1459909463700392</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.02754636401113898</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5031264408784375</v>
+        <v>-0.4999500702916527</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8768402917819352</v>
+        <v>-0.8824894464082834</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1758815694835393</v>
+        <v>-0.1750788197316759</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.01564178744501397</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5666884810348018</v>
+        <v>-0.5644706880928891</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.886348154284152</v>
+        <v>-0.8912488628183217</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1968900026955396</v>
+        <v>-0.1961691019379838</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.004826962291596953</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6885458933676585</v>
+        <v>-0.683601899307653</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9076406979475471</v>
+        <v>-0.9129829188452416</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2342761048646735</v>
+        <v>-0.2327587504317396</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.004929645897811255</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8105670036891304</v>
+        <v>-0.8051397857588857</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9409980981757119</v>
+        <v>-0.9483471934530648</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2802720916273222</v>
+        <v>-0.2780275403603474</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.01319112641625497</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9070709030256362</v>
+        <v>-0.902308708174141</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9703858221799564</v>
+        <v>-0.9775389520767074</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3065849692781058</v>
+        <v>-0.3042223665770334</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.02008917934453276</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9502604136950058</v>
+        <v>-0.9446537575849328</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.00946556892361</v>
+        <v>-1.017012990610247</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3469333754335276</v>
+        <v>-0.343135267293829</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.02534813055921512</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9957550753675203</v>
+        <v>-0.9906143289173522</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.020620642436268</v>
+        <v>-1.026396505601881</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3696134169523492</v>
+        <v>-0.3660104871836919</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.02887850010311305</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.063338734378808</v>
+        <v>-1.054529736366449</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.068884790752711</v>
+        <v>-1.074118404331036</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.389875765100853</v>
+        <v>-0.3854338831405424</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.03069616329208259</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.090083680278388</v>
+        <v>-1.080649009665312</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.113367358130229</v>
+        <v>-1.116417020177749</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4037507436551185</v>
+        <v>-0.3981551056788946</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.03101778336620586</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.111221970067896</v>
+        <v>-1.098858049870079</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.121848173155797</v>
+        <v>-1.125314950270462</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4335988682523435</v>
+        <v>-0.4279229553009332</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.02977888836228351</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.137219256884859</v>
+        <v>-1.121952058417803</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.165744418410631</v>
+        <v>-1.166558186296343</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4112714070166932</v>
+        <v>-0.405286986317508</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.02734491103123309</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.114024511113372</v>
+        <v>-1.095521916342482</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.18977654235465</v>
+        <v>-1.192324879312035</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4180145049323454</v>
+        <v>-0.4117892593076012</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.0231752867659435</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.118525418790731</v>
+        <v>-1.098195387820012</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.21405263926247</v>
+        <v>-1.214359572991124</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4230545141587502</v>
+        <v>-0.4160139266291722</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.01774304748423953</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.077626892952415</v>
+        <v>-1.05502712640878</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.229751118968762</v>
+        <v>-1.231776094568316</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4306570265146325</v>
+        <v>-0.4226248069386351</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.0108639012879958</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9878999329426692</v>
+        <v>-0.9664035538030656</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.2457706985758</v>
+        <v>-1.245575520204759</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4040655474793787</v>
+        <v>-0.3958475936470678</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.003019418232199246</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9262353728370327</v>
+        <v>-0.9049215799155002</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.254622982113995</v>
+        <v>-1.256002609873815</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.38667735824637</v>
+        <v>-0.3787380057985293</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.005644188922364528</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7771474297056742</v>
+        <v>-0.7575745019323001</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.241277660994047</v>
+        <v>-1.241911203690371</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3430187898788528</v>
+        <v>-0.3343789989220333</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.01485565622679228</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6633411251782706</v>
+        <v>-0.6444056751490234</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.261432975842303</v>
+        <v>-1.262890517548627</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3282859709034784</v>
+        <v>-0.3199058931016735</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.02409594041628517</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5052419225774656</v>
+        <v>-0.4881559450157466</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.256812442711724</v>
+        <v>-1.259470961007601</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3052580711588493</v>
+        <v>-0.297833422963674</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.03282804617281227</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3598686645723767</v>
+        <v>-0.3438231136498375</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.27574553171229</v>
+        <v>-1.276789893399273</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2824835884927497</v>
+        <v>-0.2740987886335809</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.04095571459997006</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1984797620080533</v>
+        <v>-0.1833487161949897</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.28810079480494</v>
+        <v>-1.288484068460976</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2569545723643738</v>
+        <v>-0.2490860507769917</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.04798813510803632</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.003663415364667125</v>
+        <v>0.0108065424174501</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.268161907585863</v>
+        <v>-1.269306219487049</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1916012984479692</v>
+        <v>-0.1858120561198253</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.05385950940508438</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1606389965931839</v>
+        <v>0.1745155491665707</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.26626993660206</v>
+        <v>-1.268345280813495</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1678383317736928</v>
+        <v>-0.1622757481990161</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.0580791777690874</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3294698615630169</v>
+        <v>0.3442782334562138</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.188222198472365</v>
+        <v>-1.189697054389024</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1224373242388957</v>
+        <v>-0.1174634238155856</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.06088629068321639</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5329936819854385</v>
+        <v>0.5452899193610394</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.119060585291973</v>
+        <v>-1.119594964783655</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06972027582829309</v>
+        <v>-0.065401167359444</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.06040305611977422</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7226126174902897</v>
+        <v>0.7332750230179806</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.037372140934711</v>
+        <v>-1.038416502621693</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02358262734472733</v>
+        <v>-0.02026302101790418</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.05622822214889711</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8796052846488204</v>
+        <v>0.8895216051130147</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9128310260000361</v>
+        <v>-0.9139391354614318</v>
       </c>
       <c r="G88" t="n">
-        <v>0.000207097654611266</v>
+        <v>0.004072888616525755</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.04644987224770274</v>
       </c>
       <c r="E89" t="n">
-        <v>1.019545028647179</v>
+        <v>1.029014327680924</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8078518207048867</v>
+        <v>-0.809350286908365</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03515189616660783</v>
+        <v>0.03793318795394615</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.03111409631613199</v>
       </c>
       <c r="E90" t="n">
-        <v>1.120156330880719</v>
+        <v>1.128755197340385</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6626894812620521</v>
+        <v>-0.6646239507621307</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05288479558718139</v>
+        <v>0.05549451929029792</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.008676853298860875</v>
       </c>
       <c r="E91" t="n">
-        <v>1.220969107561786</v>
+        <v>1.227562673660914</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4895835803587664</v>
+        <v>-0.4911229710593984</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02718578539370506</v>
+        <v>0.02969319785393705</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.02072172387347833</v>
       </c>
       <c r="E92" t="n">
-        <v>1.257675233470518</v>
+        <v>1.263563639003304</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3401650932119347</v>
+        <v>-0.3428125933739624</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05480509891516822</v>
+        <v>0.05652392779562857</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.05677813786821496</v>
       </c>
       <c r="E93" t="n">
-        <v>1.286549040231658</v>
+        <v>1.292149400265245</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2327319921066775</v>
+        <v>-0.2353338457141876</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04268515168115293</v>
+        <v>0.04322661425888037</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.09882098730221911</v>
       </c>
       <c r="E94" t="n">
-        <v>1.237258631448126</v>
+        <v>1.241839027091111</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1059353077711793</v>
+        <v>-0.1087716902277632</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06027009330432421</v>
+        <v>0.06080053774820254</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1454878066730073</v>
       </c>
       <c r="E95" t="n">
-        <v>1.208301401673558</v>
+        <v>1.211485642355949</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.01754154195717529</v>
+        <v>-0.01924777868466523</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0169814194303127</v>
+        <v>0.01718761593520308</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1959096663545293</v>
       </c>
       <c r="E96" t="n">
-        <v>1.119931246146373</v>
+        <v>1.12297697314609</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0611594141078591</v>
+        <v>0.0586331134181715</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02439954326868238</v>
+        <v>-0.02417131049609379</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2463199170805208</v>
       </c>
       <c r="E97" t="n">
-        <v>1.059942229395362</v>
+        <v>1.062278073771372</v>
       </c>
       <c r="F97" t="n">
-        <v>0.109171719364894</v>
+        <v>0.1064596844188929</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01080001806064444</v>
+        <v>-0.01104713906268865</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2957714436888184</v>
       </c>
       <c r="E98" t="n">
-        <v>0.958019769233778</v>
+        <v>0.9605885684397407</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1054633303151096</v>
+        <v>0.1041206920046401</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06420019076989157</v>
+        <v>-0.06375002130119958</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3409924648687807</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9013078602933142</v>
+        <v>0.9024380060224081</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1190581334657836</v>
+        <v>0.1183624170141687</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0560200133964919</v>
+        <v>-0.05547697679964317</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3796545896176526</v>
       </c>
       <c r="E100" t="n">
-        <v>0.848718307431537</v>
+        <v>0.8505850941093995</v>
       </c>
       <c r="F100" t="n">
-        <v>0.112370126219377</v>
+        <v>0.1112793309683156</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06441110933214587</v>
+        <v>-0.06360521154203992</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4094199205395005</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7691799731939706</v>
+        <v>0.7703085449039432</v>
       </c>
       <c r="F101" t="n">
-        <v>0.106423481979103</v>
+        <v>0.1059607203574406</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06190527089103517</v>
+        <v>-0.06224998107860003</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4270153143767665</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7467549227727996</v>
+        <v>0.7466777958358559</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1054963847166569</v>
+        <v>0.1063117266214906</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06193675127346119</v>
+        <v>-0.06231608988169465</v>
       </c>
     </row>
   </sheetData>
